--- a/biology/Histoire de la zoologie et de la botanique/Charles_Frédéric_Dubois/Charles_Frédéric_Dubois.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Frédéric_Dubois/Charles_Frédéric_Dubois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Fr%C3%A9d%C3%A9ric_Dubois</t>
+          <t>Charles_Frédéric_Dubois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Frédéric Dubois (on trouve parfois Charles-Frederick) est un  naturaliste belge, né le 28 mai 1804 à Barmen (aujourd'hui district de Wuppertal) et mort le 12 novembre 1867 à Bruxelles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Fr%C3%A9d%C3%A9ric_Dubois</t>
+          <t>Charles_Frédéric_Dubois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Frédéric Dubois est notamment l'auteur des Planches colorées des oiseaux de l’Europe et du Catalogue systématique des Lépidoptères de la Belgique.
 Il commence Les oiseaux de l'Europe et leurs œufs en 1851, il le complète avec son fils, Alphonse Joseph Charles Dubois (1839-1921), qui l’achèvera après sa mort.
